--- a/resultsSvm.xlsx
+++ b/resultsSvm.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,70 +477,75 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>param_random_state</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>params</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>split0_test_score</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>split1_test_score</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>split2_test_score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>split3_test_score</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>split4_test_score</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>split5_test_score</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>split6_test_score</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>split7_test_score</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>split8_test_score</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>split9_test_score</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>mean_test_score</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>std_test_score</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>rank_test_score</t>
         </is>
@@ -551,22 +556,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03080637454986572</v>
+        <v>0.02899913787841797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001094333860843845</v>
+        <v>0.002998773285739579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00340416431427002</v>
+        <v>0.004000973701477051</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0004857601057215183</v>
+        <v>0.00490017507856724</v>
       </c>
       <c r="F2" t="n">
         <v>1e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>0.001</v>
@@ -576,13 +581,13 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 3, 'gamma': 0.001, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 2, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L2" t="n">
         <v>0.8888888888888888</v>
@@ -612,13 +617,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U2" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V2" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W2" t="n">
-        <v>29</v>
+      <c r="X2" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -626,22 +634,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03109860420227051</v>
+        <v>0.03000373840332031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008266415335186725</v>
+        <v>1.550996695296883e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003404307365417481</v>
+        <v>0.003996014595031738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004859915690333932</v>
+        <v>0.004894101733704013</v>
       </c>
       <c r="F3" t="n">
         <v>1e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>0.001</v>
@@ -651,13 +659,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 2, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L3" t="n">
         <v>0.8888888888888888</v>
@@ -687,13 +695,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U3" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V3" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W3" t="n">
-        <v>29</v>
+      <c r="X3" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -701,22 +712,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09828090667724609</v>
+        <v>0.02794563770294189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05586766891720908</v>
+        <v>0.005516159226582859</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01102011203765869</v>
+        <v>0.003300356864929199</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006348838845226583</v>
+        <v>0.004473908276010893</v>
       </c>
       <c r="F4" t="n">
         <v>1e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>0.001</v>
@@ -726,13 +737,13 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 3, 'gamma': 0.001, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 2, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L4" t="n">
         <v>0.8888888888888888</v>
@@ -762,13 +773,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U4" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W4" t="n">
-        <v>29</v>
+      <c r="X4" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -776,22 +790,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03120088577270508</v>
+        <v>0.02970848083496094</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002705431335798548</v>
+        <v>0.0008816701015806751</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003408217430114746</v>
+        <v>0.002999329566955566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0004864784840032736</v>
+        <v>0.00458155857712688</v>
       </c>
       <c r="F5" t="n">
         <v>1e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -801,13 +815,13 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 3, 'gamma': 10, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 2, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L5" t="n">
         <v>0.8888888888888888</v>
@@ -837,13 +851,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U5" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V5" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W5" t="n">
-        <v>29</v>
+      <c r="X5" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -851,22 +868,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03090207576751709</v>
+        <v>0.03000354766845703</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005355883490318462</v>
+        <v>1.647539661872e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003406977653503418</v>
+        <v>0.00299832820892334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004838104391677392</v>
+        <v>0.00458003139252631</v>
       </c>
       <c r="F6" t="n">
         <v>1e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -876,13 +893,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 3, 'gamma': 10, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 2, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L6" t="n">
         <v>0.8888888888888888</v>
@@ -912,13 +929,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U6" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W6" t="n">
-        <v>29</v>
+      <c r="X6" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -926,22 +946,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1447776317596436</v>
+        <v>0.07099647521972656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1277960031924711</v>
+        <v>0.01699922069217491</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01119937896728516</v>
+        <v>0.004999423027038574</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009692693602410919</v>
+        <v>0.004999423110494343</v>
       </c>
       <c r="F7" t="n">
         <v>1e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -951,48 +971,51 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 3, 'gamma': 10, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 2, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
       <c r="O7" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="W7" t="n">
+        <v>0.07453559924999299</v>
+      </c>
+      <c r="X7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1001,22 +1024,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0368938684463501</v>
+        <v>0.03200209140777588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002507477978607203</v>
+        <v>0.003999261612144548</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004100203514099121</v>
+        <v>0.001997542381286621</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002991765831197416</v>
+        <v>0.003995088248870394</v>
       </c>
       <c r="F8" t="n">
         <v>1e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>1000</v>
@@ -1026,13 +1049,13 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 3, 'gamma': 1000, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 2, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L8" t="n">
         <v>0.8888888888888888</v>
@@ -1062,13 +1085,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U8" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V8" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W8" t="n">
-        <v>29</v>
+      <c r="X8" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -1076,22 +1102,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06538279056549072</v>
+        <v>0.03200438022613526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04868538268243655</v>
+        <v>0.00400282159874538</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007608509063720703</v>
+        <v>0.003996992111206054</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006030576464153523</v>
+        <v>0.004895310733919069</v>
       </c>
       <c r="F9" t="n">
         <v>1e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>1000</v>
@@ -1101,13 +1127,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 3, 'gamma': 1000, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 2, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L9" t="n">
         <v>0.8888888888888888</v>
@@ -1137,13 +1163,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U9" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V9" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W9" t="n">
-        <v>29</v>
+      <c r="X9" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -1151,22 +1180,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1086806058883667</v>
+        <v>0.06699914932250976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08061625160869974</v>
+        <v>0.01268126508869838</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008507418632507324</v>
+        <v>0.005999016761779785</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00688667671592558</v>
+        <v>0.004898186161335777</v>
       </c>
       <c r="F10" t="n">
         <v>1e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>1000</v>
@@ -1176,48 +1205,51 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 3, 'gamma': 1000, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 2, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
       <c r="O10" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="W10" t="n">
+        <v>0.07453559924999299</v>
+      </c>
+      <c r="X10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1226,22 +1258,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03119242191314697</v>
+        <v>0.03200457096099853</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001249248798946524</v>
+        <v>0.004002248322428906</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003306722640991211</v>
+        <v>0.004996204376220703</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0004581729752814872</v>
+        <v>0.004996208805864734</v>
       </c>
       <c r="F11" t="n">
         <v>1e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0.001</v>
@@ -1251,13 +1283,13 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 5, 'gamma': 0.001, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 3, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L11" t="n">
         <v>0.8888888888888888</v>
@@ -1287,13 +1319,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U11" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V11" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W11" t="n">
-        <v>29</v>
+      <c r="X11" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -1301,22 +1336,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1032816171646118</v>
+        <v>0.0300037145614624</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05918314892762813</v>
+        <v>1.024259646201567e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01061186790466309</v>
+        <v>0.005994534492492676</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00737167664341782</v>
+        <v>0.004894532128288116</v>
       </c>
       <c r="F12" t="n">
         <v>1e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>0.001</v>
@@ -1326,13 +1361,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 5, 'gamma': 0.001, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L12" t="n">
         <v>0.8888888888888888</v>
@@ -1362,13 +1397,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U12" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V12" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W12" t="n">
-        <v>29</v>
+      <c r="X12" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1376,22 +1414,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03039805889129639</v>
+        <v>0.03441162109375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006541996152628225</v>
+        <v>0.003229099382973122</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003306341171264648</v>
+        <v>0.004596924781799317</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004530999138149029</v>
+        <v>0.003229995038139544</v>
       </c>
       <c r="F13" t="n">
         <v>1e-06</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>0.001</v>
@@ -1401,13 +1439,13 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 5, 'gamma': 0.001, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 3, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L13" t="n">
         <v>0.8888888888888888</v>
@@ -1437,13 +1475,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U13" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V13" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W13" t="n">
-        <v>29</v>
+      <c r="X13" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -1451,22 +1492,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03060383796691895</v>
+        <v>0.03200154304504395</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0007915631316088052</v>
+        <v>0.00344069965798983</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003403449058532715</v>
+        <v>0.00430302619934082</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004822040894941511</v>
+        <v>0.004737882667318888</v>
       </c>
       <c r="F14" t="n">
         <v>1e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -1476,13 +1517,13 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 5, 'gamma': 10, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 3, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L14" t="n">
         <v>0.8888888888888888</v>
@@ -1512,13 +1553,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U14" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V14" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W14" t="n">
-        <v>29</v>
+      <c r="X14" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1526,22 +1570,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1022868871688843</v>
+        <v>0.03200185298919678</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05829860307092193</v>
+        <v>0.003992413311895076</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009921956062316894</v>
+        <v>0.002995133399963379</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006551430386294739</v>
+        <v>0.004575144465883738</v>
       </c>
       <c r="F15" t="n">
         <v>1e-06</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>
@@ -1551,13 +1595,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 5, 'gamma': 10, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 3, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L15" t="n">
         <v>0.8888888888888888</v>
@@ -1587,13 +1631,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U15" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V15" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W15" t="n">
-        <v>29</v>
+      <c r="X15" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -1601,22 +1648,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07839012145996094</v>
+        <v>0.0737877368927002</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003037548024389928</v>
+        <v>0.01519373059758075</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006304669380187988</v>
+        <v>0.007294416427612305</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0004609037531603156</v>
+        <v>0.001486106054434305</v>
       </c>
       <c r="F16" t="n">
         <v>1e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>10</v>
@@ -1626,49 +1673,52 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 5, 'gamma': 10, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 3, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
       <c r="O16" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9222222222222222</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>0.071145824860365</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="W16" t="n">
-        <v>21</v>
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1676,22 +1726,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1007717847824097</v>
+        <v>0.03322665691375733</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05857367639812464</v>
+        <v>0.003303162492570091</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01041684150695801</v>
+        <v>0.004110479354858398</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006703997916105054</v>
+        <v>0.003316940825424804</v>
       </c>
       <c r="F17" t="n">
         <v>1e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>1000</v>
@@ -1701,13 +1751,13 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 5, 'gamma': 1000, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 3, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L17" t="n">
         <v>0.8888888888888888</v>
@@ -1737,13 +1787,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U17" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V17" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W17" t="n">
-        <v>29</v>
+      <c r="X17" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
@@ -1751,22 +1804,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03089799880981445</v>
+        <v>0.03200154304504395</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005298518957721225</v>
+        <v>0.003998003853473724</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00341188907623291</v>
+        <v>0.001999592781066894</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0004792823948332514</v>
+        <v>0.003999195472302495</v>
       </c>
       <c r="F18" t="n">
         <v>1e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>1000</v>
@@ -1776,13 +1829,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 5, 'gamma': 1000, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 3, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L18" t="n">
         <v>0.8888888888888888</v>
@@ -1812,13 +1865,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U18" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V18" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W18" t="n">
-        <v>29</v>
+      <c r="X18" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1826,22 +1882,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1531387329101563</v>
+        <v>0.0705143928527832</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1181993198765524</v>
+        <v>0.01407746128276589</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01181266307830811</v>
+        <v>0.004983329772949218</v>
       </c>
       <c r="E19" t="n">
-        <v>0.009940207227648603</v>
+        <v>0.004985641131978922</v>
       </c>
       <c r="F19" t="n">
         <v>1e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
         <v>1000</v>
@@ -1851,49 +1907,52 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>{'C': 1e-06, 'degree': 5, 'gamma': 1000, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 3, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
       <c r="O19" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9222222222222222</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>0.071145824860365</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="W19" t="n">
-        <v>21</v>
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1901,22 +1960,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06064376831054687</v>
+        <v>0.03225700855255127</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01225855243710275</v>
+        <v>0.004198072824367928</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005008459091186523</v>
+        <v>0.002771782875061035</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003613219676467744</v>
+        <v>0.002900529747729093</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>0.001</v>
@@ -1926,19 +1985,19 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 3, 'gamma': 0.001, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 4, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N20" t="n">
         <v>0.8888888888888888</v>
@@ -1947,28 +2006,31 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S20" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X20" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -1976,22 +2038,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1594807386398315</v>
+        <v>0.03248329162597656</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1194712152372215</v>
+        <v>0.005258315256296793</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01331841945648193</v>
+        <v>0.003128933906555176</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01187892133898297</v>
+        <v>0.004470056697295521</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>0.001</v>
@@ -2001,13 +2063,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 4, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L21" t="n">
         <v>0.8888888888888888</v>
@@ -2037,13 +2099,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U21" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V21" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W21" t="n">
-        <v>29</v>
+      <c r="X21" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="22">
@@ -2051,22 +2116,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1276831150054932</v>
+        <v>0.02945592403411865</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1108802706470522</v>
+        <v>0.001486134835107134</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01321022510528564</v>
+        <v>0.003552651405334473</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01108221624948171</v>
+        <v>0.004575718310634661</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>0.001</v>
@@ -2076,49 +2141,52 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 3, 'gamma': 0.001, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 4, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="O22" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q22" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S22" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X22" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -2126,22 +2194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0710716962814331</v>
+        <v>0.03132555484771728</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03380313491954188</v>
+        <v>0.003591291363674393</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00594027042388916</v>
+        <v>0.003148221969604492</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0003338189117360874</v>
+        <v>0.004106547546980288</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
         <v>10</v>
@@ -2151,19 +2219,19 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 3, 'gamma': 10, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 4, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N23" t="n">
         <v>0.8888888888888888</v>
@@ -2172,28 +2240,31 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S23" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U23" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X23" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -2201,22 +2272,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1681778192520142</v>
+        <v>0.04581956863403321</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1303199333751328</v>
+        <v>0.02120861145696715</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01940310001373291</v>
+        <v>0.005405092239379882</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01706609745751971</v>
+        <v>0.004692647161121733</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
         <v>10</v>
@@ -2226,13 +2297,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 3, 'gamma': 10, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 4, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L24" t="n">
         <v>0.8888888888888888</v>
@@ -2262,13 +2333,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U24" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V24" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W24" t="n">
-        <v>29</v>
+      <c r="X24" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -2276,22 +2350,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1393797397613525</v>
+        <v>0.08064634799957275</v>
       </c>
       <c r="C25" t="n">
-        <v>0.105180635224046</v>
+        <v>0.00983229429505051</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01301815509796143</v>
+        <v>0.007202577590942383</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01027172358540186</v>
+        <v>0.001530957119322257</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
         <v>10</v>
@@ -2301,49 +2375,52 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 3, 'gamma': 10, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 4, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
       <c r="O25" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q25" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.9222222222222222</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X25" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="26">
@@ -2351,22 +2428,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05999491214752197</v>
+        <v>0.03540773391723633</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01078362143159472</v>
+        <v>0.002000454652790012</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00590980052947998</v>
+        <v>0.004217410087585449</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0002952766167810268</v>
+        <v>0.0007454679692862527</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
         <v>1000</v>
@@ -2376,19 +2453,19 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 3, 'gamma': 1000, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 4, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N26" t="n">
         <v>0.8888888888888888</v>
@@ -2397,28 +2474,31 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S26" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X26" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -2426,22 +2506,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.168077564239502</v>
+        <v>0.03689486980438232</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1294910336089453</v>
+        <v>0.001921402729201148</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01921219825744629</v>
+        <v>0.004198765754699707</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0171703022272272</v>
+        <v>0.0007484311193219478</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
         <v>1000</v>
@@ -2451,13 +2531,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 3, 'gamma': 1000, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 4, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L27" t="n">
         <v>0.8888888888888888</v>
@@ -2487,13 +2567,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U27" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V27" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W27" t="n">
-        <v>29</v>
+      <c r="X27" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="28">
@@ -2501,22 +2584,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1401762247085571</v>
+        <v>0.1033273935317993</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1187146012578219</v>
+        <v>0.03490687030320491</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01230852603912353</v>
+        <v>0.008605170249938964</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01003704072361654</v>
+        <v>0.002837348171832163</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
         <v>1000</v>
@@ -2526,49 +2609,52 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 3, 'gamma': 1000, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 4, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N28" t="n">
-        <v>1</v>
-      </c>
       <c r="O28" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q28" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.9222222222222222</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29">
@@ -2576,19 +2662,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05959558486938477</v>
+        <v>0.03279726505279541</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01014575356983632</v>
+        <v>0.00213337217437018</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005799698829650879</v>
+        <v>0.00389716625213623</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0004002998391788195</v>
+        <v>0.0005397775616495386</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -2601,19 +2687,19 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 5, 'gamma': 0.001, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 5, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N29" t="n">
         <v>0.8888888888888888</v>
@@ -2622,28 +2708,31 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S29" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U29" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V29" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X29" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -2651,19 +2740,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1623752355575561</v>
+        <v>0.03230009078979492</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1244118940047993</v>
+        <v>0.001268725825845456</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01369986534118652</v>
+        <v>0.003505468368530273</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0116685398980019</v>
+        <v>0.0004966021265171522</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -2676,13 +2765,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 5, 'gamma': 0.001, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 5, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L30" t="n">
         <v>0.8888888888888888</v>
@@ -2712,13 +2801,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U30" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V30" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W30" t="n">
-        <v>29</v>
+      <c r="X30" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="31">
@@ -2726,19 +2818,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.152387523651123</v>
+        <v>0.0305988073348999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1178806580544526</v>
+        <v>0.0006588698882877031</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01180624961853027</v>
+        <v>0.003401780128479004</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01091358127204663</v>
+        <v>0.0004882044267243566</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -2751,22 +2843,22 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 5, 'gamma': 0.001, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 5, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="O31" t="n">
         <v>0.8888888888888888</v>
@@ -2778,22 +2870,25 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S31" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U31" t="n">
-        <v>0.9222222222222222</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V31" t="n">
-        <v>0.071145824860365</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="W31" t="n">
-        <v>21</v>
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X31" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -2801,19 +2896,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05939986705780029</v>
+        <v>0.03146195411682129</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01033853454219081</v>
+        <v>0.00118960588905314</v>
       </c>
       <c r="D32" t="n">
-        <v>0.005802083015441895</v>
+        <v>0.003411030769348144</v>
       </c>
       <c r="E32" t="n">
-        <v>0.000395361472609417</v>
+        <v>0.0004893710833923447</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -2826,19 +2921,19 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 5, 'gamma': 10, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 5, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N32" t="n">
         <v>0.8888888888888888</v>
@@ -2847,28 +2942,31 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S32" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U32" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X32" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="33">
@@ -2876,19 +2974,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1761940002441406</v>
+        <v>0.03289277553558349</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1289923314781446</v>
+        <v>0.002250653800880497</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02000694274902344</v>
+        <v>0.004307818412780762</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01890343031540034</v>
+        <v>0.001673066527509476</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -2901,13 +2999,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 5, 'gamma': 10, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 5, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L33" t="n">
         <v>0.8888888888888888</v>
@@ -2937,13 +3035,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U33" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V33" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W33" t="n">
-        <v>29</v>
+      <c r="X33" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="34">
@@ -2951,19 +3052,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1508814096450806</v>
+        <v>0.09007866382598877</v>
       </c>
       <c r="C34" t="n">
-        <v>0.123403632737416</v>
+        <v>0.01028277738777512</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01220583915710449</v>
+        <v>0.007898235321044922</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0100062431390448</v>
+        <v>0.001690601832331087</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -2976,25 +3077,25 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 5, 'gamma': 10, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 5, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
       <c r="O34" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0.8888888888888888</v>
@@ -3003,22 +3104,25 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
         <v>0.9222222222222222</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>0.071145824860365</v>
       </c>
-      <c r="W34" t="n">
-        <v>21</v>
+      <c r="X34" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -3026,19 +3130,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1104887008666992</v>
+        <v>0.03210361003875732</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1085141400019367</v>
+        <v>0.001803750610180338</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01220529079437256</v>
+        <v>0.003099846839904785</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01019755158310812</v>
+        <v>0.001135822007320384</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
@@ -3051,19 +3155,19 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 5, 'gamma': 1000, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 5, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N35" t="n">
         <v>0.8888888888888888</v>
@@ -3072,28 +3176,31 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S35" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U35" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V35" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X35" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="36">
@@ -3101,19 +3208,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1257821321487427</v>
+        <v>0.03159909248352051</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06521008286100928</v>
+        <v>0.0006585063992776349</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01470537185668945</v>
+        <v>0.003406429290771484</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01244989438769959</v>
+        <v>0.0004869430404989455</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -3126,13 +3233,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 5, 'gamma': 1000, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 5, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L36" t="n">
         <v>0.8888888888888888</v>
@@ -3162,13 +3269,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U36" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V36" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W36" t="n">
-        <v>29</v>
+      <c r="X36" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="37">
@@ -3176,19 +3286,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1390756130218506</v>
+        <v>0.08464949131011963</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1230168208360808</v>
+        <v>0.005883554710650202</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01151087284088135</v>
+        <v>0.007308197021484375</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01027136487710937</v>
+        <v>0.001414767454294079</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>1e-06</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -3201,25 +3311,25 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>{'C': 10, 'degree': 5, 'gamma': 1000, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>{'C': 1e-06, 'degree': 5, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N37" t="n">
-        <v>1</v>
-      </c>
       <c r="O37" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0.8888888888888888</v>
@@ -3228,22 +3338,25 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
         <v>0.9222222222222222</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>0.071145824860365</v>
       </c>
-      <c r="W37" t="n">
-        <v>21</v>
+      <c r="X37" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -3251,22 +3364,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1307838439941406</v>
+        <v>0.06257507801055909</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1110824505199224</v>
+        <v>0.01092166148680291</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01260960102081299</v>
+        <v>0.006200528144836426</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01054058627685068</v>
+        <v>0.0004006777470730014</v>
       </c>
       <c r="F38" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0.001</v>
@@ -3276,28 +3389,28 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 3, 'gamma': 0.001, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 2, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N38" t="n">
-        <v>0.8888888888888888</v>
-      </c>
       <c r="O38" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -3306,19 +3419,22 @@
         <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
         <v>0.9333333333333333</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>0.0737027731190089</v>
       </c>
-      <c r="W38" t="n">
-        <v>1</v>
+      <c r="X38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -3326,22 +3442,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1123904466629028</v>
+        <v>0.08248927593231201</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08254502604455172</v>
+        <v>0.01193869835169706</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01030793190002441</v>
+        <v>0.007903504371643066</v>
       </c>
       <c r="E39" t="n">
-        <v>0.009251966969571764</v>
+        <v>0.000835625904019916</v>
       </c>
       <c r="F39" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0.001</v>
@@ -3351,13 +3467,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 2, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L39" t="n">
         <v>0.8888888888888888</v>
@@ -3387,13 +3503,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U39" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V39" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W39" t="n">
-        <v>29</v>
+      <c r="X39" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="40">
@@ -3401,22 +3520,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1143816947937012</v>
+        <v>0.063789963722229</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09270656540865951</v>
+        <v>0.0126918829205823</v>
       </c>
       <c r="D40" t="n">
-        <v>0.008602762222290039</v>
+        <v>0.005904340744018554</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00751266112932915</v>
+        <v>0.0005396530694584842</v>
       </c>
       <c r="F40" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0.001</v>
@@ -3426,48 +3545,51 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 3, 'gamma': 0.001, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 2, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
       <c r="O40" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
         <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U40" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="W40" t="n">
+        <v>0.07453559924999299</v>
+      </c>
+      <c r="X40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,22 +3598,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1290934085845947</v>
+        <v>0.06089017391204834</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09148883724245452</v>
+        <v>0.01024383029336441</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01440415382385254</v>
+        <v>0.005904436111450195</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01024306648829538</v>
+        <v>0.0005349361695028749</v>
       </c>
       <c r="F41" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>10</v>
@@ -3501,28 +3623,28 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 3, 'gamma': 10, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 2, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N41" t="n">
-        <v>0.8888888888888888</v>
-      </c>
       <c r="O41" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3531,19 +3653,22 @@
         <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
         <v>0.9333333333333333</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>0.0737027731190089</v>
       </c>
-      <c r="W41" t="n">
-        <v>1</v>
+      <c r="X41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -3551,22 +3676,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1578753232955933</v>
+        <v>0.1090609312057495</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1265154350871668</v>
+        <v>0.007471540990799741</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01881017684936524</v>
+        <v>0.01220433712005615</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01661118309229464</v>
+        <v>0.00107245037047254</v>
       </c>
       <c r="F42" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>10</v>
@@ -3576,13 +3701,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 3, 'gamma': 10, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 2, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L42" t="n">
         <v>0.8888888888888888</v>
@@ -3612,13 +3737,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U42" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V42" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W42" t="n">
-        <v>29</v>
+      <c r="X42" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="43">
@@ -3626,22 +3754,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07740070819854736</v>
+        <v>0.06509203910827636</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02812815973638941</v>
+        <v>0.0120822808018375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.006404685974121094</v>
+        <v>0.006106996536254882</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0006595722231204145</v>
+        <v>0.0002979037655786983</v>
       </c>
       <c r="F43" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>10</v>
@@ -3651,48 +3779,51 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 3, 'gamma': 10, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 2, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
       <c r="O43" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
         <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U43" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="W43" t="n">
+        <v>0.07453559924999299</v>
+      </c>
+      <c r="X43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3701,22 +3832,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1305814027786255</v>
+        <v>0.06079018115997314</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1054387647164502</v>
+        <v>0.01070122208981263</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01261212825775146</v>
+        <v>0.006106376647949219</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01055398227614966</v>
+        <v>0.0005373279458020357</v>
       </c>
       <c r="F44" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>1000</v>
@@ -3726,28 +3857,28 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 3, 'gamma': 1000, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 2, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N44" t="n">
-        <v>0.8888888888888888</v>
-      </c>
       <c r="O44" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3756,19 +3887,22 @@
         <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
         <v>0.9333333333333333</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
         <v>0.0737027731190089</v>
       </c>
-      <c r="W44" t="n">
-        <v>1</v>
+      <c r="X44" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -3776,22 +3910,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1721726179122925</v>
+        <v>0.1048205852508545</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1624863419726796</v>
+        <v>0.01273296812939379</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01970789432525635</v>
+        <v>0.01110339164733887</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01846617553879921</v>
+        <v>0.0009382890891362618</v>
       </c>
       <c r="F45" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>1000</v>
@@ -3801,13 +3935,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 3, 'gamma': 1000, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 2, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L45" t="n">
         <v>0.8888888888888888</v>
@@ -3837,13 +3971,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U45" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V45" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V45" t="n">
+      <c r="W45" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W45" t="n">
-        <v>29</v>
+      <c r="X45" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="46">
@@ -3851,22 +3988,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07828266620635986</v>
+        <v>0.06791224479675292</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0160682829957633</v>
+        <v>0.01508127941183035</v>
       </c>
       <c r="D46" t="n">
-        <v>0.007107019424438477</v>
+        <v>0.006206822395324707</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001037723421002694</v>
+        <v>0.0009756808383132154</v>
       </c>
       <c r="F46" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>1000</v>
@@ -3876,48 +4013,51 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 3, 'gamma': 1000, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 2, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N46" t="n">
-        <v>1</v>
-      </c>
       <c r="O46" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
         <v>1</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U46" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>0.0737027731190089</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="W46" t="n">
+        <v>0.07453559924999299</v>
+      </c>
+      <c r="X46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,22 +4066,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1315788269042969</v>
+        <v>0.06019220352172851</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08554930082505208</v>
+        <v>0.01027012252533019</v>
       </c>
       <c r="D47" t="n">
-        <v>0.01231553554534912</v>
+        <v>0.006202459335327148</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01031243233875312</v>
+        <v>0.0003991090410901013</v>
       </c>
       <c r="F47" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0.001</v>
@@ -3951,28 +4091,28 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 5, 'gamma': 0.001, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N47" t="n">
-        <v>0.8888888888888888</v>
-      </c>
       <c r="O47" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3981,19 +4121,22 @@
         <v>1</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
         <v>0.9333333333333333</v>
       </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
         <v>0.0737027731190089</v>
       </c>
-      <c r="W47" t="n">
-        <v>1</v>
+      <c r="X47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -4001,22 +4144,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.159679913520813</v>
+        <v>0.07569429874420167</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1311163806822178</v>
+        <v>0.009443775216746055</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01340546607971191</v>
+        <v>0.007304859161376953</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01210783163977495</v>
+        <v>0.0004504987510984694</v>
       </c>
       <c r="F48" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
         <v>0.001</v>
@@ -4026,13 +4169,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 5, 'gamma': 0.001, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L48" t="n">
         <v>0.8888888888888888</v>
@@ -4062,13 +4205,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U48" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V48" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W48" t="n">
-        <v>29</v>
+      <c r="X48" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="49">
@@ -4076,22 +4222,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1019821166992188</v>
+        <v>0.06819641590118408</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07270053836590035</v>
+        <v>0.01189692404366277</v>
       </c>
       <c r="D49" t="n">
-        <v>0.009316825866699218</v>
+        <v>0.006006693840026856</v>
       </c>
       <c r="E49" t="n">
-        <v>0.008917876880642064</v>
+        <v>0.0006384145600490925</v>
       </c>
       <c r="F49" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49" t="n">
         <v>0.001</v>
@@ -4101,49 +4247,52 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 5, 'gamma': 0.001, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N49" t="n">
-        <v>1</v>
-      </c>
       <c r="O49" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S49" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U49" t="n">
-        <v>0.9222222222222222</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
-        <v>0.071145824860365</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="W49" t="n">
-        <v>21</v>
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -4151,22 +4300,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1068779945373535</v>
+        <v>0.06019477844238282</v>
       </c>
       <c r="C50" t="n">
-        <v>0.07900440799686088</v>
+        <v>0.01023598592184474</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01041407585144043</v>
+        <v>0.006201648712158203</v>
       </c>
       <c r="E50" t="n">
-        <v>0.009084494501752536</v>
+        <v>0.0007452910265048928</v>
       </c>
       <c r="F50" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
         <v>10</v>
@@ -4176,28 +4325,28 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 5, 'gamma': 10, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N50" t="n">
-        <v>0.8888888888888888</v>
-      </c>
       <c r="O50" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4206,19 +4355,22 @@
         <v>1</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
         <v>0.9333333333333333</v>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>0.0737027731190089</v>
       </c>
-      <c r="W50" t="n">
-        <v>1</v>
+      <c r="X50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -4226,22 +4378,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1674766778945923</v>
+        <v>0.09850106239318848</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1264109882715089</v>
+        <v>0.001412680094674585</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01881382465362549</v>
+        <v>0.01070487499237061</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01661515743482389</v>
+        <v>0.0004516639501150136</v>
       </c>
       <c r="F51" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
         <v>10</v>
@@ -4251,13 +4403,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 5, 'gamma': 10, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L51" t="n">
         <v>0.8888888888888888</v>
@@ -4287,13 +4439,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U51" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V51" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W51" t="n">
-        <v>29</v>
+      <c r="X51" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="52">
@@ -4301,22 +4456,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1492774724960327</v>
+        <v>0.06849431991577148</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1199749997101447</v>
+        <v>0.01198661666373025</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0140103816986084</v>
+        <v>0.006202960014343261</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01114600970910588</v>
+        <v>0.000403317954173502</v>
       </c>
       <c r="F52" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>10</v>
@@ -4326,49 +4481,52 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 5, 'gamma': 10, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N52" t="n">
-        <v>1</v>
-      </c>
       <c r="O52" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S52" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U52" t="n">
-        <v>0.9222222222222222</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>0.071145824860365</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="W52" t="n">
-        <v>21</v>
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X52" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -4376,22 +4534,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.05918974876403808</v>
+        <v>0.06959016323089599</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01065469671622179</v>
+        <v>0.01281381345416095</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005810379981994629</v>
+        <v>0.006998777389526367</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0003925445626161691</v>
+        <v>0.0006326385848796579</v>
       </c>
       <c r="F53" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
         <v>1000</v>
@@ -4401,28 +4559,28 @@
           <t>linear</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 5, 'gamma': 1000, 'kernel': 'linear'}</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N53" t="n">
-        <v>0.8888888888888888</v>
-      </c>
       <c r="O53" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4431,19 +4589,22 @@
         <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
         <v>0.9333333333333333</v>
       </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
         <v>0.0737027731190089</v>
       </c>
-      <c r="W53" t="n">
-        <v>1</v>
+      <c r="X53" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -4451,22 +4612,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1672066926956177</v>
+        <v>0.1000866889953613</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1229605907279132</v>
+        <v>0.004802517060217971</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01900994777679443</v>
+        <v>0.01070640087127686</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01652043987204434</v>
+        <v>0.000457252754382422</v>
       </c>
       <c r="F54" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>1000</v>
@@ -4476,13 +4637,13 @@
           <t>rbf</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 5, 'gamma': 1000, 'kernel': 'rbf'}</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L54" t="n">
         <v>0.8888888888888888</v>
@@ -4512,13 +4673,16 @@
         <v>0.8888888888888888</v>
       </c>
       <c r="U54" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V54" t="n">
         <v>0.888888888888889</v>
       </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="W54" t="n">
-        <v>29</v>
+      <c r="X54" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -4526,22 +4690,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1499760150909424</v>
+        <v>0.06849367618560791</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1228759315904549</v>
+        <v>0.01185565597920792</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01450393199920654</v>
+        <v>0.006009387969970703</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01247059961941519</v>
+        <v>1.157585426159618e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>1000</v>
@@ -4551,49 +4715,4264 @@
           <t>poly</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>{'C': 1000000, 'degree': 5, 'gamma': 1000, 'kernel': 'poly'}</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>0.8888888888888888</v>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 3, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
       <c r="O55" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>0.8888888888888888</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="S55" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.06029462814331055</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01013996799269724</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.006005215644836426</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0004379434819578347</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.07630972862243653</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.009406685544875578</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.007228827476501465</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0003927260253607551</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X57" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.07579059600830078</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.007277481121651153</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.00640721321105957</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0004889465387408979</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
         <v>0.9222222222222222</v>
       </c>
-      <c r="V55" t="n">
+      <c r="W58" t="n">
         <v>0.071145824860365</v>
       </c>
-      <c r="W55" t="n">
-        <v>21</v>
+      <c r="X58" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.06011283397674561</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0101254846850467</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.006006217002868653</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0004472773777714729</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.09788596630096436</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0008315718649665707</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.01080193519592285</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0003920915306858605</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X60" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.07569410800933837</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.00761727998040457</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.00640263557434082</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0004832842952403058</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X61" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.06070816516876221</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01083287016379034</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.006002378463745117</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.868972490384942e-06</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.09911961555480957</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.001759829507813242</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.01150076389312744</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0008042203397201769</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X63" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.07571816444396973</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.006966230534412436</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.006401538848876953</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0004901672031134283</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 4, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X64" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0603926420211792</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01097179559244936</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.006301617622375489</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0004610606815750213</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 5, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.07588601112365723</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.008832488793992666</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.00740199089050293</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0004924474752515155</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 5, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X66" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.0799140453338623</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.002189307175124505</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.006604456901550293</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0006587811269466331</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 5, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X67" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.06101629734039307</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01055435419120638</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.005803894996643066</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0003970162336706967</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 5, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.09831922054290772</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0007744786499638578</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.01100356578826904</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0004462378970465385</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 5, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X69" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.08033127784729004</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.003176422919652922</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.006696414947509765</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0006350537054607095</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 5, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X70" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.06009438037872315</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01032045045805092</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.006002497673034668</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0004426757128465397</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 5, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>1</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.09800949096679687</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.001470134028672805</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01120190620422363</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0003932155132555963</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 5, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X72" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.07938554286956787</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.003040920687896668</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.006699919700622559</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0006403088981335163</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>{'C': 1, 'degree': 5, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X73" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.05993881225585938</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.009970868314277835</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.006003141403198242</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0004464778481982259</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 2, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.086224365234375</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.002062343875115442</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.007602858543395996</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0004883068030765869</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 2, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X75" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.06411700248718262</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.01157012261886558</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.006000304222106933</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0006316034094218677</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 2, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.07453559924999299</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.06089105606079102</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01047170035556232</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.005901503562927246</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0005384498318112118</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 2, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.09898836612701416</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.001417888026832152</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.01089720726013184</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.000299223101845185</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 2, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X78" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.06481153964996338</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.01197158292946128</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.00610353946685791</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0002976604055609809</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 2, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.07453559924999299</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.06009054183959961</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01045221290161363</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.005906414985656738</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0005358923752802108</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 2, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.103949236869812</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.006664315683124147</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01139700412750244</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0006634341922438641</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 2, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X81" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.07088980674743653</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.013230510176274</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.007199501991271973</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.001165572308903597</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 2, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.07453559924999299</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.06663551330566406</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.01115144934246009</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.006396675109863281</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0009175668800137924</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 3, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.09353110790252686</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.00197899418332161</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.008404183387756347</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0009031741072508668</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 3, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X84" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.08334140777587891</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.01785793734287863</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.008700752258300781</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.001675202385453788</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 3, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.06434247493743897</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.01028057316699598</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.006504607200622558</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.000673322527154945</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 3, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.09829721450805665</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0008314778279795418</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.01080548763275146</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0003977195125614191</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 3, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X87" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.06839065551757813</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.01242594247870801</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.006702089309692382</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.001185743441607547</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 3, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.06219363212585449</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.01087433048345983</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.006500077247619629</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0006707908146669769</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 3, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.1016389131546021</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.01085549871622049</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.01060540676116943</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.000486951525326862</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 3, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X90" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.06716561317443848</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.01083570287165682</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.006762933731079101</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.002703145435248977</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 3, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.06022870540618896</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.01022474956954072</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.005930805206298828</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.000767507995045359</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 4, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.08698797225952148</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.002364557152051429</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0074981689453125</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.000499342237379518</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 4, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X93" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.07549262046813965</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.006975011825959223</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.006501436233520508</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0007970306640065304</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 4, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X94" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.06016504764556885</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.01027053018266593</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.006000900268554687</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.429048425827807e-05</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4</v>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 4, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1016904354095459</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.003897714702370852</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.01090335845947266</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0005341739719376743</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 4, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X96" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.07629282474517822</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.007549695316188253</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.006802201271057129</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0006035395954567092</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 4, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X97" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.06041774749755859</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.009889443151149577</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.006397294998168945</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0006608820304045437</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>4</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 4, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.09838657379150391</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.00079905754555967</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.01090116500854492</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0003006231539931469</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 4, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X99" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.07643451690673828</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.007826040513434353</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.006603240966796875</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0004882435881909352</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 4, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X100" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.06048569679260254</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.009930281158421208</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.005904030799865722</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0005393660321327771</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 5, 'gamma': 0.001, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.08848111629486084</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.002392749866716766</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.00699615478515625</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.001106479244276295</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 5, 'gamma': 0.001, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X102" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.07958784103393554</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.002689828221775692</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.006806635856628418</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0005993537266265605</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 5, 'gamma': 0.001, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X103" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.0623128890991211</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.0117356255180071</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.006300020217895508</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0004582790835853234</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 5, 'gamma': 10, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.1027861595153809</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.007163531601223246</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0114987850189209</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0006703689786734252</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5</v>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 5, 'gamma': 10, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X105" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.07922849655151368</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.002463515958396638</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.006608653068542481</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0006553440332982412</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 5, 'gamma': 10, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X106" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.06069049835205078</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.01036299228379799</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.00580751895904541</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0003937160887045275</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 5, 'gamma': 1000, 'kernel': 'linear', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.0737027731190089</v>
+      </c>
+      <c r="X107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.09915854930877685</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.003234120597065704</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.01080162525177002</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0007461058843573123</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>rbf</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 5, 'gamma': 1000, 'kernel': 'rbf', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="X108" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.08081841468811035</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.003627205128836977</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.00679781436920166</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0003993467280872307</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>{'C': 1000000, 'degree': 5, 'gamma': 1000, 'kernel': 'poly', 'random_state': 1}</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.9222222222222222</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.071145824860365</v>
+      </c>
+      <c r="X109" t="n">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
